--- a/biology/Zoologie/Allosmaitia_myrtusa/Allosmaitia_myrtusa.xlsx
+++ b/biology/Zoologie/Allosmaitia_myrtusa/Allosmaitia_myrtusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allosmaitia myrtusa est une espèce d'insectes lépidoptères de la famille des Lycaenidae, sous-famille des Theclinae et du genre Allosmaitia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Allosmaitia myrtusa a été décrit par William Chapman Hewitson en 1867, sous le nom initial de Thecla myrtusa.
-Synonyme: Thecla bianca Möschler, 1883[1].
-Noms vernaculaires
-Allosmaitia myrtusa se nomme Myrtusa Hairstreak en anglais[2].
+Synonyme: Thecla bianca Möschler, 1883.
 </t>
         </is>
       </c>
@@ -542,14 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Allosmaitia myrtusa est un petit papillon d'une envergure d'environ 34 mm, au corps bleu sur le dessus qui possède à chaque aile postérieure une queue longue et fine[3].
-Le dessus est bleu outremer avec aux ailes antérieures une bordure costale et un apex noir depuis la moitié du bord costal à l'angle externe.
-Le revers est gris beige avec une ligne de traits noirs doublés de blanc en limite de l'aire postdiscale, et, sur les ailes postérieures, un gros ocelle bleu gris dans l'aire postmarginale en e2 et un petit ocelle rouge en e3.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allosmaitia myrtusa se nomme Myrtusa Hairstreak en anglais.
 </t>
         </is>
       </c>
@@ -575,10 +591,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allosmaitia myrtusa est un petit papillon d'une envergure d'environ 34 mm, au corps bleu sur le dessus qui possède à chaque aile postérieure une queue longue et fine.
+Le dessus est bleu outremer avec aux ailes antérieures une bordure costale et un apex noir depuis la moitié du bord costal à l'angle externe.
+Le revers est gris beige avec une ligne de traits noirs doublés de blanc en limite de l'aire postdiscale, et, sur les ailes postérieures, un gros ocelle bleu gris dans l'aire postmarginale en e2 et un petit ocelle rouge en e3.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,15 +626,79 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Allosmaitia_myrtusa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allosmaitia_myrtusa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allosmaitia myrtusa est présent à Panama, en Colombie, en Bolivie, en Équateur, au Brésil, au Surinam et en Guyane[1],[3],[4].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allosmaitia myrtusa est présent à Panama, en Colombie, en Bolivie, en Équateur, au Brésil, au Surinam et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Allosmaitia_myrtusa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allosmaitia_myrtusa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Allosmaitia myrtusa, sur Wikimedia CommonsAllosmaitia myrtusa, sur Wikispecies
 </t>
